--- a/src/test/resources/example.xlsx
+++ b/src/test/resources/example.xlsx
@@ -21,21 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>mood</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>fun</t>
+    <t>I love music</t>
   </si>
 </sst>
 </file>
@@ -475,9 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -492,23 +478,6 @@
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
